--- a/test_.xlsx
+++ b/test_.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="OESTest_001" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="127">
   <si>
     <t>动态库名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -491,6 +491,14 @@
   </si>
   <si>
     <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口返回值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口返回值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -830,10 +838,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H96"/>
+  <dimension ref="A1:I96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -849,7 +857,7 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -863,7 +871,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -877,7 +885,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>32</v>
       </c>
@@ -891,7 +899,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="66" customHeight="1">
+    <row r="4" spans="1:9" ht="66" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -916,8 +924,11 @@
       <c r="H4" s="3" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -941,7 +952,7 @@
       </c>
       <c r="H5"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="C6" s="1" t="s">
         <v>13</v>
       </c>
@@ -959,7 +970,7 @@
       </c>
       <c r="H6"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="C7" s="1" t="s">
         <v>12</v>
       </c>
@@ -977,7 +988,7 @@
       </c>
       <c r="H7"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="C8" s="1" t="s">
         <v>13</v>
       </c>
@@ -995,7 +1006,7 @@
       </c>
       <c r="H8"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
@@ -1013,7 +1024,7 @@
       </c>
       <c r="H9"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="B10" s="2"/>
       <c r="C10" s="1" t="s">
         <v>13</v>
@@ -1032,7 +1043,7 @@
       </c>
       <c r="H10"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9">
       <c r="B11" s="2"/>
       <c r="C11" s="1" t="s">
         <v>12</v>
@@ -1051,7 +1062,7 @@
       </c>
       <c r="H11"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9">
       <c r="B12" s="2"/>
       <c r="C12" s="1" t="s">
         <v>13</v>
@@ -1070,7 +1081,7 @@
       </c>
       <c r="H12"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1094,7 +1105,7 @@
       </c>
       <c r="H13"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:9">
       <c r="B14" s="2"/>
       <c r="C14" s="1" t="s">
         <v>13</v>
@@ -1113,7 +1124,7 @@
       </c>
       <c r="H14"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
         <v>35</v>
       </c>
@@ -1137,7 +1148,7 @@
       </c>
       <c r="H15"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:9">
       <c r="C16" s="1" t="s">
         <v>42</v>
       </c>
@@ -2667,10 +2678,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H96"/>
+  <dimension ref="A1:I96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2679,9 +2690,11 @@
     <col min="2" max="2" width="44.875" customWidth="1"/>
     <col min="4" max="4" width="15.75" customWidth="1"/>
     <col min="6" max="6" width="15.375" customWidth="1"/>
+    <col min="8" max="8" width="23.375" customWidth="1"/>
+    <col min="9" max="9" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2697,7 +2710,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -2713,7 +2726,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>32</v>
       </c>
@@ -2729,7 +2742,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:8" ht="31.5" customHeight="1">
+    <row r="4" spans="1:9" ht="31.5" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -2754,8 +2767,11 @@
       <c r="H4" s="3" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -2778,7 +2794,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
@@ -2797,7 +2813,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
@@ -2816,7 +2832,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
@@ -2835,7 +2851,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
@@ -2854,7 +2870,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="1" t="s">
@@ -2873,7 +2889,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="1" t="s">
@@ -2892,7 +2908,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="1" t="s">
@@ -2911,7 +2927,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -2934,7 +2950,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:9">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="1" t="s">
@@ -2953,7 +2969,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
         <v>35</v>
       </c>
@@ -2976,7 +2992,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:9">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
